--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiyu\source\repos\ホテル宿泊管理システム\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF043E-5E52-4D30-BA32-6EB51EC68A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD1DF3-99E9-4F6E-9CC4-7F9C13277A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20760" yWindow="690" windowWidth="20745" windowHeight="14340" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="0" windowWidth="20745" windowHeight="14340" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
     <sheet name="職位区分" sheetId="164" r:id="rId2"/>
+    <sheet name="従業員マスタ" sheetId="165" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
@@ -24,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>説明／備考</t>
-  </si>
-  <si>
-    <t>コード説明</t>
   </si>
   <si>
     <t>テーブル名</t>
@@ -331,6 +329,162 @@
       <t>イチイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>従業員マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>従業員ID</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>従業員番号</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>employee_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bigserial</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>名前(性)</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>名前(名)</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rank_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>退社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>entry_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>leave_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>従業員を表すマスタテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rank(code)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>従業員マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -811,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,6 +1127,24 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,11 +1184,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,67 +1265,16 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,10 +1628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -1479,40 +1648,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="A1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="65"/>
+        <v>7</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="66">
+        <v>9</v>
+      </c>
+      <c r="J2" s="72">
         <v>44141</v>
       </c>
-      <c r="K2" s="67"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1537,30 +1706,30 @@
     </row>
     <row r="4" spans="1:19" ht="22.5" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="55" t="s">
+      <c r="D4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="56"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1577,39 +1746,61 @@
         <v>44137</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="99">
+      <c r="E5" s="59"/>
+      <c r="F5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="58">
         <v>44141</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
+      <c r="C6" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="10" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1648,16 +1839,9 @@
     <row r="43" ht="22.5" customHeight="1"/>
     <row r="44" ht="22.5" customHeight="1"/>
     <row r="45" ht="22.5" customHeight="1"/>
+    <row r="46" ht="22.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+  <mergeCells count="20">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -1666,6 +1850,18 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1678,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -1702,102 +1898,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="70"/>
+      <c r="A1" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="92"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
+      <c r="D1" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77" t="s">
+      <c r="D2" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="49">
         <v>44141</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="100"/>
+      <c r="P2" s="98"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -1808,48 +2004,48 @@
     </row>
     <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="26" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="O6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
         <v>3</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
@@ -1857,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="37">
         <v>3</v>
@@ -1872,20 +2068,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -1895,13 +2091,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="37">
         <v>20</v>
@@ -1910,14 +2106,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="98"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -1927,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="37">
         <v>20</v>
@@ -1942,14 +2138,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -1968,8 +2164,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -1988,8 +2184,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2008,8 +2204,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2028,8 +2224,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2048,8 +2244,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2068,8 +2264,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2088,8 +2284,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2108,8 +2304,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2128,8 +2324,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2148,8 +2344,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2168,8 +2364,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2188,19 +2384,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2214,6 +2412,621 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47142DA0-D885-4972-B122-5177C6058259}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="4.625" style="23" customWidth="1"/>
+    <col min="7" max="8" width="4" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49">
+        <v>44141</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="100"/>
+      <c r="P2" s="98"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="87"/>
+      <c r="N6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="37">
+        <v>8</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="37">
+        <v>10</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="37">
+        <v>255</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="37">
+        <v>20</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="37">
+        <v>20</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -2224,7 +3037,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiyu\source\repos\ホテル宿泊管理システム\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD1DF3-99E9-4F6E-9CC4-7F9C13277A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F4F23E-4554-4F3D-B62C-7BF889471D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="0" windowWidth="20745" windowHeight="14340" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24960" yWindow="690" windowWidth="20745" windowHeight="14340" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
     <sheet name="職位区分" sheetId="164" r:id="rId2"/>
     <sheet name="従業員マスタ" sheetId="165" r:id="rId3"/>
+    <sheet name="顧客マスタ" sheetId="167" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>説明／備考</t>
   </si>
@@ -480,6 +481,64 @@
   </si>
   <si>
     <t>"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>顧客マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客を表すマスタテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>campany_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>”</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>顧客マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>customer</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -965,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,13 +1195,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,6 +1246,45 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,6 +1327,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,45 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1628,10 +1696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -1648,40 +1716,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="71"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72">
+      <c r="J2" s="73">
         <v>44141</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1714,22 +1782,22 @@
       <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="63"/>
+      <c r="H4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1748,60 +1816,82 @@
       <c r="C5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58">
+      <c r="I5" s="76"/>
+      <c r="J5" s="75">
         <v>44141</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="55"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="103" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-    </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
+      <c r="C7" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+    </row>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="10" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="11" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1840,8 +1930,25 @@
     <row r="44" ht="22.5" customHeight="1"/>
     <row r="45" ht="22.5" customHeight="1"/>
     <row r="46" ht="22.5" customHeight="1"/>
+    <row r="47" ht="22.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -1850,18 +1957,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1898,23 +1993,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1924,25 +2019,25 @@
       <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="17" t="s">
         <v>25</v>
       </c>
@@ -1952,48 +2047,48 @@
       <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="98"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2034,10 +2129,10 @@
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="87"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="26" t="s">
         <v>70</v>
       </c>
@@ -2080,8 +2175,8 @@
         <v>39</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2112,8 +2207,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2144,8 +2239,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2164,8 +2259,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2184,8 +2279,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2204,8 +2299,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="89"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2224,8 +2319,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2244,8 +2339,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2264,8 +2359,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2284,8 +2379,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2304,8 +2399,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2324,8 +2419,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2344,8 +2439,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2364,8 +2459,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2384,21 +2479,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2412,11 +2505,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2453,23 +2548,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="56" t="s">
         <v>7</v>
       </c>
@@ -2479,25 +2574,25 @@
       <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
@@ -2507,48 +2602,48 @@
       <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="98"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2589,10 +2684,10 @@
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="87"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="26" t="s">
         <v>68</v>
       </c>
@@ -2635,8 +2730,8 @@
         <v>19</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2669,8 +2764,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2701,8 +2796,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2733,8 +2828,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="39" t="s">
         <v>69</v>
       </c>
@@ -2767,8 +2862,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2799,8 +2894,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="89"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2831,8 +2926,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2861,8 +2956,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2881,8 +2976,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2901,8 +2996,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2921,8 +3016,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2941,8 +3036,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2961,8 +3056,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2981,8 +3076,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3001,8 +3096,575 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0408FC-D050-463B-8202-8217C429C967}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="4.625" style="23" customWidth="1"/>
+    <col min="7" max="8" width="4" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49">
+        <v>44141</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="87"/>
+      <c r="P2" s="85"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="101"/>
+      <c r="N6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="37">
+        <v>8</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="37">
+        <v>100</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="37">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="37">
+        <v>20</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>

--- a/document/テーブル定義書.xlsx
+++ b/document/テーブル定義書.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiyu\source\repos\ホテル宿泊管理システム\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F4F23E-4554-4F3D-B62C-7BF889471D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7B84D-A845-471E-94C4-49C616104374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="690" windowWidth="20745" windowHeight="14340" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="450" windowWidth="26010" windowHeight="14340" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
-    <sheet name="職位区分" sheetId="164" r:id="rId2"/>
-    <sheet name="従業員マスタ" sheetId="165" r:id="rId3"/>
-    <sheet name="顧客マスタ" sheetId="167" r:id="rId4"/>
+    <sheet name="客室タイプ区分" sheetId="169" r:id="rId2"/>
+    <sheet name="職位区分" sheetId="164" r:id="rId3"/>
+    <sheet name="従業員マスタ" sheetId="165" r:id="rId4"/>
+    <sheet name="顧客マスタ" sheetId="167" r:id="rId5"/>
+    <sheet name="客室マスタ" sheetId="171" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="113">
   <si>
     <t>説明／備考</t>
   </si>
@@ -543,6 +545,187 @@
   </si>
   <si>
     <t>"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>客室タイプ区分</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>room_type</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室のタイプを表す区分テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室タイプコード</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室名</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>宿泊料金</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>収容人数</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室を表すマスタテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室ID</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室番号</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>room_type_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>can_smoke</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>喫煙フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>客室タイプ区分</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>room_type</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>客室マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キャクシツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>room</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1024,7 +1207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,6 +1390,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,17 +1450,65 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,66 +1536,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1699,7 +1891,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -1716,40 +1908,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="72"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="80">
         <v>44141</v>
       </c>
-      <c r="K2" s="74"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1782,22 +1974,22 @@
       <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="62" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1816,22 +2008,22 @@
       <c r="C5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="75">
+      <c r="I5" s="66"/>
+      <c r="J5" s="65">
         <v>44141</v>
       </c>
-      <c r="K5" s="76"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="55"/>
@@ -1839,22 +2031,22 @@
       <c r="C6" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="A7" s="58"/>
@@ -1862,39 +2054,95 @@
       <c r="C7" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="67"/>
+      <c r="J7" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="54"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
-    <row r="10" spans="1:19" ht="22.5" customHeight="1"/>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1"/>
+      <c r="C8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="1:19" ht="22.5" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+    </row>
     <row r="12" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="13" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="14" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1932,7 +2180,27 @@
     <row r="46" ht="22.5" customHeight="1"/>
     <row r="47" ht="22.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="36">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -1949,14 +2217,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1966,6 +2226,579 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CD4169-9E86-4539-8CC6-BCB72299BEE3}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="4.625" style="23" customWidth="1"/>
+    <col min="7" max="8" width="4" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49">
+        <v>44141</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="110"/>
+      <c r="P2" s="108"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="37">
+        <v>20</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35">
+        <v>1</v>
+      </c>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="37">
+        <v>255</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -1993,23 +2826,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
@@ -2019,25 +2852,25 @@
       <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="17" t="s">
         <v>25</v>
       </c>
@@ -2047,48 +2880,48 @@
       <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="85"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2129,10 +2962,10 @@
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="26" t="s">
         <v>70</v>
       </c>
@@ -2175,8 +3008,8 @@
         <v>39</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2207,8 +3040,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2239,8 +3072,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2259,8 +3092,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2279,8 +3112,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2299,8 +3132,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2319,8 +3152,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2339,8 +3172,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2359,8 +3192,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2379,8 +3212,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2399,8 +3232,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2419,8 +3252,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2439,8 +3272,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2459,8 +3292,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2479,19 +3312,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2505,13 +3340,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2520,12 +3353,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47142DA0-D885-4972-B122-5177C6058259}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2548,23 +3381,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="56" t="s">
         <v>7</v>
       </c>
@@ -2574,25 +3407,25 @@
       <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
@@ -2602,48 +3435,48 @@
       <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="85"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2684,10 +3517,10 @@
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="26" t="s">
         <v>68</v>
       </c>
@@ -2711,9 +3544,7 @@
       <c r="D7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="37">
-        <v>8</v>
-      </c>
+      <c r="E7" s="37"/>
       <c r="F7" s="38">
         <v>0</v>
       </c>
@@ -2730,8 +3561,8 @@
         <v>19</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2764,8 +3595,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2796,8 +3627,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2828,8 +3659,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="39" t="s">
         <v>69</v>
       </c>
@@ -2862,8 +3693,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2894,8 +3725,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2926,8 +3757,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2956,8 +3787,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2976,8 +3807,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2996,8 +3827,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3016,8 +3847,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3036,8 +3867,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3056,8 +3887,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3076,8 +3907,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3096,8 +3927,571 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0408FC-D050-463B-8202-8217C429C967}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="23" customWidth="1"/>
+    <col min="5" max="6" width="4.625" style="23" customWidth="1"/>
+    <col min="7" max="8" width="4" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="49">
+        <v>44141</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="110"/>
+      <c r="P2" s="108"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="37">
+        <v>100</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="37">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="37">
+        <v>20</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -3137,12 +4531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0408FC-D050-463B-8202-8217C429C967}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC440CB-740B-4BE5-872E-10D30CC102D5}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3165,24 +4559,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="60" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="63" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="13" t="s">
@@ -3191,25 +4585,25 @@
       <c r="N1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
+      <c r="D2" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
@@ -3219,48 +4613,48 @@
       <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="85"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3285,7 +4679,7 @@
       <c r="E6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="47" t="s">
         <v>24</v>
       </c>
@@ -3301,10 +4695,10 @@
       <c r="K6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="100" t="s">
+      <c r="L6" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="26" t="s">
         <v>68</v>
       </c>
@@ -3320,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>53</v>
@@ -3328,9 +4722,7 @@
       <c r="D7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="37">
-        <v>8</v>
-      </c>
+      <c r="E7" s="37"/>
       <c r="F7" s="38">
         <v>0</v>
       </c>
@@ -3347,8 +4739,8 @@
         <v>19</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3358,29 +4750,31 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="37">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F8" s="38">
         <v>0</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3390,16 +4784,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="37">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F9" s="38">
         <v>0</v>
@@ -3411,8 +4805,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3422,17 +4816,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="37">
-        <v>20</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="38">
         <v>0</v>
       </c>
@@ -3443,8 +4835,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3463,8 +4855,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3483,8 +4875,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3503,8 +4895,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3523,8 +4915,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="89"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3543,8 +4935,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3563,8 +4955,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3583,8 +4975,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3603,8 +4995,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3623,8 +5015,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3643,8 +5035,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3663,8 +5055,8 @@
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
